--- a/mybatis/概览.xlsx
+++ b/mybatis/概览.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6AD0D6-D9BF-47F3-B5A6-2D4ED3453531}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6D77DD-79C6-4A8E-A0FB-BC635A1DEA21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>https://blog.csdn.net/hellozpc/article/details/80878563</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>概览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,13 +119,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -153,7 +157,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="1495425"/>
+          <a:off x="38100" y="1495425"/>
           <a:ext cx="10401300" cy="6067425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -825,22 +829,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:T96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="O206" sqref="O206"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A284" workbookViewId="0">
+      <selection activeCell="AV14" sqref="AV14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.2">
